--- a/Example Household Expenses.xlsx
+++ b/Example Household Expenses.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26219"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3146" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C03C49C3-8F45-4CC8-A8F4-038D8CE77427}"/>
+  <xr:revisionPtr revIDLastSave="3170" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCB55C3F-2677-4198-9435-8CDE68A751C4}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="4" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actuals" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="800" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="201">
   <si>
     <t>Account ID</t>
   </si>
@@ -536,6 +536,9 @@
     <t>DayOfWeek</t>
   </si>
   <si>
+    <t>TrueFalse</t>
+  </si>
+  <si>
     <t>Table</t>
   </si>
   <si>
@@ -555,6 +558,9 @@
   </si>
   <si>
     <t>Day of Week</t>
+  </si>
+  <si>
+    <t>True False</t>
   </si>
   <si>
     <t>Explains how the various reference tables are used by this spreadsheet and/or Power BI.</t>
@@ -585,6 +591,9 @@
   </si>
   <si>
     <t>Friday</t>
+  </si>
+  <si>
+    <t>List containing TRUE and FALSE to act as a picklist for any boolean flags used in other tables.</t>
   </si>
   <si>
     <t>Saturday</t>
@@ -904,6 +913,51 @@
 </table>
 </file>
 
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1A037F0-6D24-4FA7-A3CD-ACAC31864B50}" name="BulkGenerate" displayName="BulkGenerate" ref="B16:H381" totalsRowShown="0">
+  <autoFilter ref="B16:H381" xr:uid="{A1A037F0-6D24-4FA7-A3CD-ACAC31864B50}"/>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{C72FEAEF-6EA5-4E49-8431-4F7CDB696FC8}" name="Target Date" dataDxfId="3">
+      <calculatedColumnFormula>B16+1</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="2" xr3:uid="{02E54EC8-17A7-4842-B8BF-0891D232D585}" name="Day of Week">
+      <calculatedColumnFormula array="1">_xlfn.SWITCH(WEEKDAY(B17, 1), 1, "Sunday", 2, "Monday", 3, "Tuesday", 4, "Wednesday", 5, "Thursday", 6, "Friday", 7, "Saturday")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="3" xr3:uid="{CC8A825E-6C93-49A2-98D6-4CAE11EBB644}" name="Fornight YN">
+      <calculatedColumnFormula>MOD(WEEKNUM(B17), 2) = 0</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{A7C004C9-539C-47A3-B4EB-79B841B80D67}" name="Day of Month">
+      <calculatedColumnFormula>DAY(B17)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{F9497E7F-59ED-4BC6-A82D-6F449BE9E554}" name="Account ID" dataDxfId="2">
+      <calculatedColumnFormula array="1">_xlfn.SWITCH($C$7,
+  "Weekly", IF(BulkGenerate[[#This Row],[Day of Week]] = $C$9, $C$5, ""),
+  "Fortnightly", IF(AND(BulkGenerate[[#This Row],[Day of Week]] = $C$9, BulkGenerate[[#This Row],[Fornight YN]]), $C$5, ""),
+  "Monthly", IF(BulkGenerate[[#This Row],[Day of Month]] = $C$10, $C$5, ""),
+  ""
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="6" xr3:uid="{35FF3D5F-4EEC-4CF4-A461-615DB9DA7A96}" name="Amount" dataDxfId="1">
+      <calculatedColumnFormula array="1">_xlfn.SWITCH($C$7,
+  "Weekly", IF(BulkGenerate[[#This Row],[Day of Week]] = $C$9, $C$6, ""),
+  "Fortnightly", IF(AND(BulkGenerate[[#This Row],[Day of Week]] = $C$9, BulkGenerate[[#This Row],[Fornight YN]]), $C$6, ""),
+  "Monthly", IF(BulkGenerate[[#This Row],[Day of Month]] = $C$10, $C$6, ""),
+  ""
+)</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="7" xr3:uid="{F3934758-B895-4115-B977-5FB8F1F8F39C}" name="Date" dataDxfId="0">
+      <calculatedColumnFormula array="1">_xlfn.SWITCH($C$7,
+  "Weekly", IF(BulkGenerate[[#This Row],[Day of Week]] = $C$9, BulkGenerate[[#This Row],[Target Date]], ""),
+  "Fortnightly", IF(AND(BulkGenerate[[#This Row],[Day of Week]] = $C$9, BulkGenerate[[#This Row],[Fornight YN]]), BulkGenerate[[#This Row],[Target Date]], ""),
+  "Monthly", IF(BulkGenerate[[#This Row],[Day of Month]] = $C$10, BulkGenerate[[#This Row],[Target Date]], ""),
+  ""
+)</calculatedColumnFormula>
+    </tableColumn>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{8B1BCC89-76ED-4E20-987F-A35F425D2409}" name="Budget" displayName="Budget" ref="A1:J44">
   <autoFilter ref="A1:J44" xr:uid="{8B1BCC89-76ED-4E20-987F-A35F425D2409}"/>
@@ -993,8 +1047,8 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{02D59190-B2D9-4D8B-9B97-814480075C14}" name="ReferenceTables" displayName="ReferenceTables" ref="A2:B7" totalsRowShown="0">
-  <autoFilter ref="A2:B7" xr:uid="{02D59190-B2D9-4D8B-9B97-814480075C14}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{02D59190-B2D9-4D8B-9B97-814480075C14}" name="ReferenceTables" displayName="ReferenceTables" ref="A2:B8" totalsRowShown="0">
+  <autoFilter ref="A2:B8" xr:uid="{02D59190-B2D9-4D8B-9B97-814480075C14}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{BC38C9D2-4F0A-472A-A2A2-6ED182DB1C41}" name="Table"/>
     <tableColumn id="2" xr3:uid="{5061407F-E13D-4DB1-8A02-4A8F4774745E}" name="Purpose"/>
@@ -1014,45 +1068,10 @@
 </file>
 
 <file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{A1A037F0-6D24-4FA7-A3CD-ACAC31864B50}" name="BulkGenerate" displayName="BulkGenerate" ref="B16:H381" totalsRowShown="0">
-  <autoFilter ref="B16:H381" xr:uid="{A1A037F0-6D24-4FA7-A3CD-ACAC31864B50}"/>
-  <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{C72FEAEF-6EA5-4E49-8431-4F7CDB696FC8}" name="Target Date" dataDxfId="3">
-      <calculatedColumnFormula>B16+1</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="2" xr3:uid="{02E54EC8-17A7-4842-B8BF-0891D232D585}" name="Day of Week">
-      <calculatedColumnFormula array="1">_xlfn.SWITCH(WEEKDAY(B17, 1), 1, "Sunday", 2, "Monday", 3, "Tuesday", 4, "Wednesday", 5, "Thursday", 6, "Friday", 7, "Saturday")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="3" xr3:uid="{CC8A825E-6C93-49A2-98D6-4CAE11EBB644}" name="Fornight YN">
-      <calculatedColumnFormula>MOD(WEEKNUM(B17), 2) = 0</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{A7C004C9-539C-47A3-B4EB-79B841B80D67}" name="Day of Month">
-      <calculatedColumnFormula>DAY(B17)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{F9497E7F-59ED-4BC6-A82D-6F449BE9E554}" name="Account ID" dataDxfId="2">
-      <calculatedColumnFormula array="1">_xlfn.SWITCH($C$7,
-  "Weekly", IF(BulkGenerate[[#This Row],[Day of Week]] = $C$9, $C$5, ""),
-  "Fortnightly", IF(AND(BulkGenerate[[#This Row],[Day of Week]] = $C$9, BulkGenerate[[#This Row],[Fornight YN]]), $C$5, ""),
-  "Monthly", IF(BulkGenerate[[#This Row],[Day of Month]] = $C$10, $C$5, ""),
-  ""
-)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="6" xr3:uid="{35FF3D5F-4EEC-4CF4-A461-615DB9DA7A96}" name="Amount" dataDxfId="1">
-      <calculatedColumnFormula array="1">_xlfn.SWITCH($C$7,
-  "Weekly", IF(BulkGenerate[[#This Row],[Day of Week]] = $C$9, $C$6, ""),
-  "Fortnightly", IF(AND(BulkGenerate[[#This Row],[Day of Week]] = $C$9, BulkGenerate[[#This Row],[Fornight YN]]), $C$6, ""),
-  "Monthly", IF(BulkGenerate[[#This Row],[Day of Month]] = $C$10, $C$6, ""),
-  ""
-)</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="7" xr3:uid="{F3934758-B895-4115-B977-5FB8F1F8F39C}" name="Date" dataDxfId="0">
-      <calculatedColumnFormula array="1">_xlfn.SWITCH($C$7,
-  "Weekly", IF(BulkGenerate[[#This Row],[Day of Week]] = $C$9, BulkGenerate[[#This Row],[Target Date]], ""),
-  "Fortnightly", IF(AND(BulkGenerate[[#This Row],[Day of Week]] = $C$9, BulkGenerate[[#This Row],[Fornight YN]]), BulkGenerate[[#This Row],[Target Date]], ""),
-  "Monthly", IF(BulkGenerate[[#This Row],[Day of Month]] = $C$10, BulkGenerate[[#This Row],[Target Date]], ""),
-  ""
-)</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{7E97604E-DEC0-45F9-9BAD-ED1E233350BE}" name="TrueFalse" displayName="TrueFalse" ref="N2:N4" totalsRowShown="0">
+  <autoFilter ref="N2:N4" xr:uid="{7E97604E-DEC0-45F9-9BAD-ED1E233350BE}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{AD3D9A18-2E74-4B84-A379-4B0CD7D40BCD}" name="True False"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1357,8 +1376,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099C7294-FCA0-4582-B49D-6278DA2DA473}">
   <dimension ref="A1:G341"/>
   <sheetViews>
-    <sheetView topLeftCell="A296" workbookViewId="0">
-      <selection activeCell="A334" sqref="A334:C341"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H3" sqref="H3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8286,13 +8305,16 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="3">
+  <dataValidations count="4">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A2:A163 A166:A325" xr:uid="{F5566D04-97E7-4642-8DB1-3D3EAF6E1A1A}">
       <formula1>INDIRECT("Account[Account ID]")</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B325" xr:uid="{2FCE6913-03B2-4C0A-9512-DCFBC3DEC502}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C80:C325" xr:uid="{4B6A96E9-38EC-4D02-B32F-61C839D05DF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C341" xr:uid="{4B6A96E9-38EC-4D02-B32F-61C839D05DF8}">
       <formula1>INDIRECT("DatePicker[Date]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G325" xr:uid="{B7A093F7-2596-4881-A148-9A69608BEE78}">
+      <formula1>INDIRECT("TrueFalse[True False]")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -8307,7 +8329,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9906,12 +9928,15 @@
       </c>
     </row>
   </sheetData>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E2:E44" xr:uid="{3713D74F-B74F-4DF9-B2EC-8B33FBD3915F}">
       <formula1>INDIRECT("BudgetedFrequency[Budgeted Frequency]")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="A1:A44" xr:uid="{C5F5CAD7-CEFD-4B58-976D-B1B6D65587CF}">
       <formula1>INDIRECT("Account[Account ID]")</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="H2:H44" xr:uid="{20EDF4F9-B56B-41DC-92F0-1D91C82C9940}">
+      <formula1>INDIRECT("TrueFalse[True False]")</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -9925,8 +9950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D324BC89-9FCF-4784-A8AF-E8EA6D92BDDA}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+    <sheetView topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11039,6 +11064,11 @@
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:F44 E2:E44" xr:uid="{C128101B-4527-46E8-838F-C7B784ECBBD3}">
+      <formula1>INDIRECT("TrueFalse[True False]")</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -11048,10 +11078,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AE8A7705-184F-498C-8E34-B998D6002BA2}">
-  <dimension ref="A1:L366"/>
+  <dimension ref="A1:N366"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11064,9 +11094,10 @@
     <col min="9" max="9" width="22" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="28.42578125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="14.7109375" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="12.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:14">
       <c r="A1" t="s">
         <v>155</v>
       </c>
@@ -11082,39 +11113,45 @@
       <c r="L1" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="N1" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B2" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E2" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="J2" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="L2" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12">
+        <v>167</v>
+      </c>
+      <c r="N2" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
       <c r="A3" t="s">
         <v>155</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D3" s="1">
         <f>MIN(Budget[Effective From])</f>
@@ -11134,15 +11171,18 @@
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12">
+        <v>170</v>
+      </c>
+      <c r="N3" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
       <c r="A4" t="s">
         <v>156</v>
       </c>
       <c r="B4" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G4" s="1">
         <f>1+G3</f>
@@ -11155,15 +11195,18 @@
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12">
+        <v>172</v>
+      </c>
+      <c r="N4" t="b">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
       <c r="A5" t="s">
         <v>157</v>
       </c>
       <c r="B5" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G68" si="0">1+G4</f>
@@ -11176,15 +11219,15 @@
         <v>4.33</v>
       </c>
       <c r="L5" t="s">
-        <v>172</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
       <c r="A6" t="s">
         <v>158</v>
       </c>
       <c r="B6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
@@ -11197,15 +11240,15 @@
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
       <c r="A7" t="s">
         <v>159</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
@@ -11218,10 +11261,16 @@
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" t="s">
+        <v>160</v>
+      </c>
+      <c r="B8" t="s">
+        <v>179</v>
+      </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>44932</v>
@@ -11233,55 +11282,56 @@
         <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
       <c r="G9" s="1">
         <f t="shared" si="0"/>
         <v>44933</v>
       </c>
       <c r="L9" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="D10" s="1"/>
       <c r="G10" s="1">
         <f t="shared" si="0"/>
         <v>44934</v>
       </c>
     </row>
-    <row r="11" spans="1:12">
+    <row r="11" spans="1:14">
       <c r="G11" s="1">
         <f t="shared" si="0"/>
         <v>44935</v>
       </c>
     </row>
-    <row r="12" spans="1:12">
+    <row r="12" spans="1:14">
       <c r="G12" s="1">
         <f t="shared" si="0"/>
         <v>44936</v>
       </c>
     </row>
-    <row r="13" spans="1:12">
+    <row r="13" spans="1:14">
       <c r="G13" s="1">
         <f t="shared" si="0"/>
         <v>44937</v>
       </c>
     </row>
-    <row r="14" spans="1:12">
+    <row r="14" spans="1:14">
       <c r="G14" s="1">
         <f t="shared" si="0"/>
         <v>44938</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:14">
       <c r="G15" s="1">
         <f t="shared" si="0"/>
         <v>44939</v>
       </c>
     </row>
-    <row r="16" spans="1:12">
+    <row r="16" spans="1:14">
       <c r="G16" s="1">
         <f t="shared" si="0"/>
         <v>44940</v>
@@ -13389,12 +13439,13 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="5">
+  <tableParts count="6">
     <tablePart r:id="rId1"/>
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -13404,7 +13455,7 @@
   <dimension ref="B2:M397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13424,13 +13475,13 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="14" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="C2" s="12">
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -13444,7 +13495,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="14" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C3" s="13">
         <f>DATEVALUE("01/01/" &amp; C2)</f>
@@ -13452,16 +13503,16 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="K3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -13480,14 +13531,14 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="15" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -13501,7 +13552,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="8" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="C6" s="6">
         <f>_xlfn.XLOOKUP($C$5, Budget[Account ID], Budget[Budgeted Amount at Frequency])</f>
@@ -13509,7 +13560,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -13523,7 +13574,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="8" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>_xlfn.XLOOKUP($C$5, Budget[Account ID], Budget[Frequency])</f>
@@ -13531,7 +13582,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="18" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -13546,7 +13597,7 @@
     <row r="8" spans="2:13">
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" t="s">
@@ -13561,13 +13612,13 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -13581,7 +13632,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="C10" s="9">
         <v>18</v>
@@ -13598,7 +13649,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="E11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -13612,7 +13663,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="E12" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -13669,16 +13720,16 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="C16" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="D16" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="E16" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>

--- a/Example Household Expenses.xlsx
+++ b/Example Household Expenses.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26306"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26312"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="3170" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{BCB55C3F-2677-4198-9435-8CDE68A751C4}"/>
+  <xr:revisionPtr revIDLastSave="3234" documentId="11_E60897F41BE170836B02CE998F75CCDC64E183C8" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{C68AAB05-681A-44EE-9269-E208C7EEBE7C}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" firstSheet="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Actuals" sheetId="3" r:id="rId1"/>
@@ -54,7 +54,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="804" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1065" uniqueCount="205">
   <si>
     <t>Account ID</t>
   </si>
@@ -236,7 +236,7 @@
     <t>breakfast - hagras hosue of ribs</t>
   </si>
   <si>
-    <t>dinner - gimlets whole foods</t>
+    <t>dinner - gimlets hole foods</t>
   </si>
   <si>
     <t>coffee and a figgin</t>
@@ -246,6 +246,9 @@
   </si>
   <si>
     <t>sausage in a bun</t>
+  </si>
+  <si>
+    <t>dinner - gimlets whole foods</t>
   </si>
   <si>
     <t>Sam-Other Discretionary</t>
@@ -314,6 +317,42 @@
     <t>Syb-Burn Cream</t>
   </si>
   <si>
+    <t>Health</t>
+  </si>
+  <si>
+    <t>Sybil</t>
+  </si>
+  <si>
+    <t>Sundries</t>
+  </si>
+  <si>
+    <t>Common</t>
+  </si>
+  <si>
+    <t>Entertainment</t>
+  </si>
+  <si>
+    <t>Swamp Dragon</t>
+  </si>
+  <si>
+    <t>Transport</t>
+  </si>
+  <si>
+    <t>Discretionary</t>
+  </si>
+  <si>
+    <t>Sam</t>
+  </si>
+  <si>
+    <t>scrunchies</t>
+  </si>
+  <si>
+    <t>Nobby's birthday party</t>
+  </si>
+  <si>
+    <t>gift for Sam</t>
+  </si>
+  <si>
     <t>Account</t>
   </si>
   <si>
@@ -374,19 +413,10 @@
     <t>Breakdown</t>
   </si>
   <si>
-    <t>Common</t>
-  </si>
-  <si>
-    <t>Entertainment</t>
-  </si>
-  <si>
     <t>Meals Out</t>
   </si>
   <si>
     <t>Parties</t>
-  </si>
-  <si>
-    <t>Health</t>
   </si>
   <si>
     <t>Gym</t>
@@ -419,9 +449,6 @@
     <t>Rates</t>
   </si>
   <si>
-    <t>Sundries</t>
-  </si>
-  <si>
     <t>Cleaning Products</t>
   </si>
   <si>
@@ -434,9 +461,6 @@
     <t>Prepared Meals</t>
   </si>
   <si>
-    <t>Swamp Dragon</t>
-  </si>
-  <si>
     <t>Dragon Disposal</t>
   </si>
   <si>
@@ -447,9 +471,6 @@
   </si>
   <si>
     <t>Dragon Pen Maintenance</t>
-  </si>
-  <si>
-    <t>Transport</t>
   </si>
   <si>
     <t>Car Maintenance</t>
@@ -471,12 +492,6 @@
   </si>
   <si>
     <t>Water</t>
-  </si>
-  <si>
-    <t>Sam</t>
-  </si>
-  <si>
-    <t>Discretionary</t>
   </si>
   <si>
     <t>Armour Polish</t>
@@ -501,9 +516,6 @@
   </si>
   <si>
     <t>Salves and Ointments</t>
-  </si>
-  <si>
-    <t>Sybil</t>
   </si>
   <si>
     <t>Clothes</t>
@@ -799,7 +811,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -821,6 +833,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -891,8 +904,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53804D3B-8767-49C1-AA1D-9D650FEB1DCA}" name="Actuals" displayName="Actuals" ref="A1:G341" totalsRowShown="0">
-  <autoFilter ref="A1:G341" xr:uid="{53804D3B-8767-49C1-AA1D-9D650FEB1DCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{53804D3B-8767-49C1-AA1D-9D650FEB1DCA}" name="Actuals" displayName="Actuals" ref="A1:G414" totalsRowShown="0">
+  <autoFilter ref="A1:G414" xr:uid="{53804D3B-8767-49C1-AA1D-9D650FEB1DCA}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F39">
     <sortCondition ref="C1:C39"/>
   </sortState>
@@ -1374,10 +1387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{099C7294-FCA0-4582-B49D-6278DA2DA473}">
-  <dimension ref="A1:G341"/>
+  <dimension ref="A1:G414"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H3" sqref="H3"/>
+    <sheetView tabSelected="1" topLeftCell="A362" workbookViewId="0">
+      <selection activeCell="I378" sqref="I378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7153,7 +7166,7 @@
         <v>Sam</v>
       </c>
       <c r="F288" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
     </row>
     <row r="289" spans="1:6">
@@ -7510,7 +7523,7 @@
     </row>
     <row r="305" spans="1:6">
       <c r="A305" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B305" s="2">
         <v>65</v>
@@ -7527,12 +7540,12 @@
         <v>Sam</v>
       </c>
       <c r="F305" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="306" spans="1:6">
       <c r="A306" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B306" s="2">
         <v>50</v>
@@ -7549,12 +7562,12 @@
         <v>Sam</v>
       </c>
       <c r="F306" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="307" spans="1:6">
       <c r="A307" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B307" s="2">
         <v>38</v>
@@ -7571,12 +7584,12 @@
         <v>Sam</v>
       </c>
       <c r="F307" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="308" spans="1:6">
       <c r="A308" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B308" s="2">
         <v>140</v>
@@ -7593,12 +7606,12 @@
         <v>Sam</v>
       </c>
       <c r="F308" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="309" spans="1:6">
       <c r="A309" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B309" s="2">
         <v>48</v>
@@ -7615,12 +7628,12 @@
         <v>Sam</v>
       </c>
       <c r="F309" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="310" spans="1:6">
       <c r="A310" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B310" s="2">
         <v>50</v>
@@ -7637,12 +7650,12 @@
         <v>Sam</v>
       </c>
       <c r="F310" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="311" spans="1:6">
       <c r="A311" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B311" s="2">
         <v>100</v>
@@ -7659,12 +7672,12 @@
         <v>Sam</v>
       </c>
       <c r="F311" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="312" spans="1:6">
       <c r="A312" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B312" s="2">
         <v>45</v>
@@ -7681,12 +7694,12 @@
         <v>Sybil</v>
       </c>
       <c r="F312" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="313" spans="1:6">
       <c r="A313" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B313" s="2">
         <v>80</v>
@@ -7708,7 +7721,7 @@
     </row>
     <row r="314" spans="1:6">
       <c r="A314" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B314" s="2">
         <v>45</v>
@@ -7725,12 +7738,12 @@
         <v>Sybil</v>
       </c>
       <c r="F314" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="315" spans="1:6">
       <c r="A315" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B315" s="2">
         <v>31</v>
@@ -7752,7 +7765,7 @@
     </row>
     <row r="316" spans="1:6">
       <c r="A316" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B316" s="2">
         <v>45</v>
@@ -7769,12 +7782,12 @@
         <v>Sybil</v>
       </c>
       <c r="F316" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="317" spans="1:6">
       <c r="A317" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B317" s="2">
         <v>143</v>
@@ -7791,12 +7804,12 @@
         <v>Sybil</v>
       </c>
       <c r="F317" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="318" spans="1:6">
       <c r="A318" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B318" s="2">
         <v>45</v>
@@ -7813,12 +7826,12 @@
         <v>Sybil</v>
       </c>
       <c r="F318" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="319" spans="1:6">
       <c r="A319" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B319" s="2">
         <v>80</v>
@@ -7840,7 +7853,7 @@
     </row>
     <row r="320" spans="1:6">
       <c r="A320" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B320" s="2">
         <v>45</v>
@@ -7857,12 +7870,12 @@
         <v>Sybil</v>
       </c>
       <c r="F320" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="321" spans="1:7">
       <c r="A321" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B321" s="2">
         <v>75</v>
@@ -7884,7 +7897,7 @@
     </row>
     <row r="322" spans="1:7">
       <c r="A322" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B322" s="2">
         <v>45</v>
@@ -7901,12 +7914,12 @@
         <v>Sybil</v>
       </c>
       <c r="F322" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="323" spans="1:7">
       <c r="A323" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B323" s="2">
         <v>60</v>
@@ -7923,12 +7936,12 @@
         <v>Sybil</v>
       </c>
       <c r="F323" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
     </row>
     <row r="324" spans="1:7">
       <c r="A324" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B324" s="2">
         <v>150</v>
@@ -7945,12 +7958,12 @@
         <v>Sybil</v>
       </c>
       <c r="F324" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
     </row>
     <row r="325" spans="1:7">
       <c r="A325" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B325" s="2">
         <v>35</v>
@@ -7967,7 +7980,7 @@
         <v>Sybil</v>
       </c>
       <c r="F325" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G325" t="b">
         <v>1</v>
@@ -7975,7 +7988,7 @@
     </row>
     <row r="326" spans="1:7">
       <c r="A326" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B326" s="2">
         <v>20</v>
@@ -7992,12 +8005,12 @@
         <v>Sybil</v>
       </c>
       <c r="F326" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="327" spans="1:7">
       <c r="A327" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B327" s="2">
         <v>79</v>
@@ -8014,12 +8027,12 @@
         <v>Sybil</v>
       </c>
       <c r="F327" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="328" spans="1:7">
       <c r="A328" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B328" s="2">
         <v>50</v>
@@ -8036,7 +8049,7 @@
         <v>Sybil</v>
       </c>
       <c r="F328" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G328" t="b">
         <v>1</v>
@@ -8044,7 +8057,7 @@
     </row>
     <row r="329" spans="1:7">
       <c r="A329" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B329" s="2">
         <v>28</v>
@@ -8061,12 +8074,12 @@
         <v>Sybil</v>
       </c>
       <c r="F329" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="330" spans="1:7">
       <c r="A330" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B330" s="2">
         <v>39</v>
@@ -8083,12 +8096,12 @@
         <v>Sybil</v>
       </c>
       <c r="F330" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="331" spans="1:7">
       <c r="A331" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B331" s="2">
         <v>59</v>
@@ -8105,12 +8118,12 @@
         <v>Sybil</v>
       </c>
       <c r="F331" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="332" spans="1:7">
       <c r="A332" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B332" s="2">
         <v>81</v>
@@ -8127,12 +8140,12 @@
         <v>Sybil</v>
       </c>
       <c r="F332" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="333" spans="1:7">
       <c r="A333" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B333" s="2">
         <v>220</v>
@@ -8149,12 +8162,12 @@
         <v>Sybil</v>
       </c>
       <c r="F333" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="334" spans="1:7">
       <c r="A334" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B334" s="2">
         <v>70</v>
@@ -8173,7 +8186,7 @@
     </row>
     <row r="335" spans="1:7">
       <c r="A335" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B335" s="2">
         <v>70</v>
@@ -8192,7 +8205,7 @@
     </row>
     <row r="336" spans="1:7">
       <c r="A336" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B336" s="2">
         <v>70</v>
@@ -8209,9 +8222,9 @@
         <v>Sybil</v>
       </c>
     </row>
-    <row r="337" spans="1:5">
+    <row r="337" spans="1:6">
       <c r="A337" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B337" s="2">
         <v>70</v>
@@ -8228,9 +8241,9 @@
         <v>Sybil</v>
       </c>
     </row>
-    <row r="338" spans="1:5">
+    <row r="338" spans="1:6">
       <c r="A338" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B338" s="2">
         <v>70</v>
@@ -8247,9 +8260,9 @@
         <v>Sybil</v>
       </c>
     </row>
-    <row r="339" spans="1:5">
+    <row r="339" spans="1:6">
       <c r="A339" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B339" s="2">
         <v>70</v>
@@ -8266,9 +8279,9 @@
         <v>Sybil</v>
       </c>
     </row>
-    <row r="340" spans="1:5">
+    <row r="340" spans="1:6">
       <c r="A340" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B340" s="2">
         <v>70</v>
@@ -8285,9 +8298,9 @@
         <v>Sybil</v>
       </c>
     </row>
-    <row r="341" spans="1:5">
+    <row r="341" spans="1:6">
       <c r="A341" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B341" s="2">
         <v>70</v>
@@ -8302,6 +8315,1373 @@
       <c r="E341" t="str">
         <f>_xlfn.XLOOKUP(Actuals[[#This Row],[Account ID]], Budget[Account ID], Budget[Account Owner])</f>
         <v>Sybil</v>
+      </c>
+    </row>
+    <row r="342" spans="1:6">
+      <c r="A342" t="s">
+        <v>33</v>
+      </c>
+      <c r="B342" s="2">
+        <v>120</v>
+      </c>
+      <c r="C342" s="1">
+        <v>44985</v>
+      </c>
+      <c r="D342" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E342" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F342" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="343" spans="1:6">
+      <c r="A343" t="s">
+        <v>35</v>
+      </c>
+      <c r="B343" s="2">
+        <v>91</v>
+      </c>
+      <c r="C343" s="1">
+        <v>44988</v>
+      </c>
+      <c r="D343" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E343" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="344" spans="1:6">
+      <c r="A344" t="s">
+        <v>35</v>
+      </c>
+      <c r="B344" s="2">
+        <v>90</v>
+      </c>
+      <c r="C344" s="1">
+        <v>44987</v>
+      </c>
+      <c r="D344" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E344" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="345" spans="1:6">
+      <c r="A345" t="s">
+        <v>36</v>
+      </c>
+      <c r="B345" s="2">
+        <v>40</v>
+      </c>
+      <c r="C345" s="1">
+        <v>44989</v>
+      </c>
+      <c r="D345" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E345" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F345" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="346" spans="1:6">
+      <c r="A346" t="s">
+        <v>36</v>
+      </c>
+      <c r="B346" s="2">
+        <v>113</v>
+      </c>
+      <c r="C346" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D346" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E346" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F346" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="347" spans="1:6">
+      <c r="A347" t="s">
+        <v>43</v>
+      </c>
+      <c r="B347" s="2">
+        <v>17</v>
+      </c>
+      <c r="C347" s="1">
+        <v>44985</v>
+      </c>
+      <c r="D347" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E347" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="348" spans="1:6">
+      <c r="A348" t="s">
+        <v>48</v>
+      </c>
+      <c r="B348" s="2">
+        <v>72</v>
+      </c>
+      <c r="C348" s="1">
+        <v>44985</v>
+      </c>
+      <c r="D348" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E348" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="349" spans="1:6">
+      <c r="A349" t="s">
+        <v>49</v>
+      </c>
+      <c r="B349" s="2">
+        <v>212</v>
+      </c>
+      <c r="C349" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D349" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E349" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="350" spans="1:6">
+      <c r="A350" t="s">
+        <v>50</v>
+      </c>
+      <c r="B350" s="2">
+        <v>270</v>
+      </c>
+      <c r="C350" s="1">
+        <v>44983</v>
+      </c>
+      <c r="D350" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E350" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="351" spans="1:6">
+      <c r="A351" t="s">
+        <v>55</v>
+      </c>
+      <c r="B351" s="2">
+        <v>72</v>
+      </c>
+      <c r="C351" s="1">
+        <v>44983</v>
+      </c>
+      <c r="D351" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E351" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="352" spans="1:6">
+      <c r="A352" t="s">
+        <v>56</v>
+      </c>
+      <c r="B352" s="2">
+        <v>25</v>
+      </c>
+      <c r="C352" s="1">
+        <v>44987</v>
+      </c>
+      <c r="D352" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E352" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="353" spans="1:6">
+      <c r="A353" t="s">
+        <v>57</v>
+      </c>
+      <c r="B353" s="2">
+        <v>31</v>
+      </c>
+      <c r="C353" s="1">
+        <v>44984</v>
+      </c>
+      <c r="D353" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E353" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="354" spans="1:6">
+      <c r="A354" t="s">
+        <v>58</v>
+      </c>
+      <c r="B354" s="2">
+        <v>12</v>
+      </c>
+      <c r="C354" s="1">
+        <v>44984</v>
+      </c>
+      <c r="D354" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E354" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F354" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="355" spans="1:6">
+      <c r="A355" t="s">
+        <v>58</v>
+      </c>
+      <c r="B355" s="2">
+        <v>22</v>
+      </c>
+      <c r="C355" s="1">
+        <v>44985</v>
+      </c>
+      <c r="D355" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E355" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F355" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="356" spans="1:6">
+      <c r="A356" t="s">
+        <v>58</v>
+      </c>
+      <c r="B356" s="2">
+        <v>16</v>
+      </c>
+      <c r="C356" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D356" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E356" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F356" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="357" spans="1:6">
+      <c r="A357" t="s">
+        <v>58</v>
+      </c>
+      <c r="B357" s="2">
+        <v>18</v>
+      </c>
+      <c r="C357" s="1">
+        <v>44986</v>
+      </c>
+      <c r="D357" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E357" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F357" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="358" spans="1:6">
+      <c r="A358" t="s">
+        <v>65</v>
+      </c>
+      <c r="B358" s="2">
+        <v>48</v>
+      </c>
+      <c r="C358" s="1">
+        <v>44983</v>
+      </c>
+      <c r="D358" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E358" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F358" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="359" spans="1:6">
+      <c r="A359" t="s">
+        <v>65</v>
+      </c>
+      <c r="B359" s="2">
+        <v>50</v>
+      </c>
+      <c r="C359" s="1">
+        <v>44990</v>
+      </c>
+      <c r="D359" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E359" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F359" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="360" spans="1:6">
+      <c r="A360" t="s">
+        <v>65</v>
+      </c>
+      <c r="B360" s="2">
+        <v>100</v>
+      </c>
+      <c r="C360" s="1">
+        <v>44990</v>
+      </c>
+      <c r="D360" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E360" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F360" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="361" spans="1:6">
+      <c r="A361" t="s">
+        <v>72</v>
+      </c>
+      <c r="B361" s="2">
+        <v>45</v>
+      </c>
+      <c r="C361" s="1">
+        <v>44983</v>
+      </c>
+      <c r="D361" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E361" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F361" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="362" spans="1:6">
+      <c r="A362" t="s">
+        <v>72</v>
+      </c>
+      <c r="B362" s="2">
+        <v>80</v>
+      </c>
+      <c r="C362" s="1">
+        <v>44990</v>
+      </c>
+      <c r="D362" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E362" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F362" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="363" spans="1:6">
+      <c r="A363" t="s">
+        <v>75</v>
+      </c>
+      <c r="B363" s="2">
+        <v>51</v>
+      </c>
+      <c r="C363" s="1">
+        <v>44985</v>
+      </c>
+      <c r="D363" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E363" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F363" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="364" spans="1:6">
+      <c r="A364" t="s">
+        <v>86</v>
+      </c>
+      <c r="B364" s="2">
+        <v>70</v>
+      </c>
+      <c r="C364" s="1">
+        <v>44985</v>
+      </c>
+      <c r="D364" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E364" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="365" spans="1:6">
+      <c r="A365" t="s">
+        <v>33</v>
+      </c>
+      <c r="B365" s="2">
+        <v>120</v>
+      </c>
+      <c r="C365" s="1">
+        <v>44992</v>
+      </c>
+      <c r="D365" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E365" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F365" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="366" spans="1:6">
+      <c r="A366" t="s">
+        <v>35</v>
+      </c>
+      <c r="B366" s="2">
+        <v>91</v>
+      </c>
+      <c r="C366" s="1">
+        <v>44995</v>
+      </c>
+      <c r="D366" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E366" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="367" spans="1:6">
+      <c r="A367" t="s">
+        <v>35</v>
+      </c>
+      <c r="B367" s="2">
+        <v>90</v>
+      </c>
+      <c r="C367" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D367" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E367" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="368" spans="1:6">
+      <c r="A368" t="s">
+        <v>36</v>
+      </c>
+      <c r="B368" s="2">
+        <v>40</v>
+      </c>
+      <c r="C368" s="1">
+        <v>44996</v>
+      </c>
+      <c r="D368" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E368" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F368" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="369" spans="1:6">
+      <c r="A369" t="s">
+        <v>36</v>
+      </c>
+      <c r="B369" s="2">
+        <v>113</v>
+      </c>
+      <c r="C369" s="1">
+        <v>44993</v>
+      </c>
+      <c r="D369" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E369" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F369" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="370" spans="1:6">
+      <c r="A370" t="s">
+        <v>43</v>
+      </c>
+      <c r="B370" s="2">
+        <v>17</v>
+      </c>
+      <c r="C370" s="1">
+        <v>44992</v>
+      </c>
+      <c r="D370" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E370" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="371" spans="1:6">
+      <c r="A371" t="s">
+        <v>48</v>
+      </c>
+      <c r="B371" s="2">
+        <v>72</v>
+      </c>
+      <c r="C371" s="1">
+        <v>44992</v>
+      </c>
+      <c r="D371" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E371" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="372" spans="1:6">
+      <c r="A372" t="s">
+        <v>49</v>
+      </c>
+      <c r="B372" s="2">
+        <v>212</v>
+      </c>
+      <c r="C372" s="1">
+        <v>44993</v>
+      </c>
+      <c r="D372" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E372" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="373" spans="1:6">
+      <c r="A373" t="s">
+        <v>50</v>
+      </c>
+      <c r="B373" s="2">
+        <v>270</v>
+      </c>
+      <c r="C373" s="1">
+        <v>44990</v>
+      </c>
+      <c r="D373" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E373" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="374" spans="1:6">
+      <c r="A374" t="s">
+        <v>55</v>
+      </c>
+      <c r="B374" s="2">
+        <v>72</v>
+      </c>
+      <c r="C374" s="1">
+        <v>44990</v>
+      </c>
+      <c r="D374" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E374" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="375" spans="1:6">
+      <c r="A375" t="s">
+        <v>56</v>
+      </c>
+      <c r="B375" s="2">
+        <v>25</v>
+      </c>
+      <c r="C375" s="1">
+        <v>44994</v>
+      </c>
+      <c r="D375" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E375" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="376" spans="1:6">
+      <c r="A376" t="s">
+        <v>57</v>
+      </c>
+      <c r="B376" s="2">
+        <v>31</v>
+      </c>
+      <c r="C376" s="1">
+        <v>44991</v>
+      </c>
+      <c r="D376" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E376" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="377" spans="1:6">
+      <c r="A377" t="s">
+        <v>58</v>
+      </c>
+      <c r="B377" s="2">
+        <v>12</v>
+      </c>
+      <c r="C377" s="1">
+        <v>44991</v>
+      </c>
+      <c r="D377" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E377" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F377" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="378" spans="1:6">
+      <c r="A378" t="s">
+        <v>58</v>
+      </c>
+      <c r="B378" s="2">
+        <v>22</v>
+      </c>
+      <c r="C378" s="1">
+        <v>44992</v>
+      </c>
+      <c r="D378" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E378" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F378" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="s">
+        <v>58</v>
+      </c>
+      <c r="B379" s="2">
+        <v>16</v>
+      </c>
+      <c r="C379" s="1">
+        <v>44993</v>
+      </c>
+      <c r="D379" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E379" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F379" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="380" spans="1:6">
+      <c r="A380" t="s">
+        <v>58</v>
+      </c>
+      <c r="B380" s="2">
+        <v>18</v>
+      </c>
+      <c r="C380" s="1">
+        <v>44993</v>
+      </c>
+      <c r="D380" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E380" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F380" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" t="s">
+        <v>65</v>
+      </c>
+      <c r="B381" s="2">
+        <v>152</v>
+      </c>
+      <c r="C381" s="1">
+        <v>44990</v>
+      </c>
+      <c r="D381" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E381" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F381" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="382" spans="1:6">
+      <c r="A382" t="s">
+        <v>65</v>
+      </c>
+      <c r="B382" s="2">
+        <v>50</v>
+      </c>
+      <c r="C382" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D382" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E382" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F382" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="383" spans="1:6">
+      <c r="A383" t="s">
+        <v>65</v>
+      </c>
+      <c r="B383" s="2">
+        <v>100</v>
+      </c>
+      <c r="C383" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D383" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E383" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F383" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="384" spans="1:6">
+      <c r="A384" t="s">
+        <v>72</v>
+      </c>
+      <c r="B384" s="2">
+        <v>45</v>
+      </c>
+      <c r="C384" s="1">
+        <v>44990</v>
+      </c>
+      <c r="D384" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E384" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F384" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="385" spans="1:6">
+      <c r="A385" t="s">
+        <v>72</v>
+      </c>
+      <c r="B385" s="2">
+        <v>80</v>
+      </c>
+      <c r="C385" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D385" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E385" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F385" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="386" spans="1:6">
+      <c r="A386" t="s">
+        <v>75</v>
+      </c>
+      <c r="B386" s="2">
+        <v>39</v>
+      </c>
+      <c r="C386" s="1">
+        <v>44992</v>
+      </c>
+      <c r="D386" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E386" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F386" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="387" spans="1:6">
+      <c r="A387" t="s">
+        <v>86</v>
+      </c>
+      <c r="B387" s="2">
+        <v>70</v>
+      </c>
+      <c r="C387" s="1">
+        <v>44992</v>
+      </c>
+      <c r="D387" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E387" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="388" spans="1:6">
+      <c r="A388" t="s">
+        <v>33</v>
+      </c>
+      <c r="B388" s="2">
+        <v>120</v>
+      </c>
+      <c r="C388" s="1">
+        <v>44999</v>
+      </c>
+      <c r="D388" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E388" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F388" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="389" spans="1:6">
+      <c r="A389" t="s">
+        <v>35</v>
+      </c>
+      <c r="B389" s="2">
+        <v>91</v>
+      </c>
+      <c r="C389" s="1">
+        <v>45002</v>
+      </c>
+      <c r="D389" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E389" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="390" spans="1:6">
+      <c r="A390" t="s">
+        <v>35</v>
+      </c>
+      <c r="B390" s="2">
+        <v>90</v>
+      </c>
+      <c r="C390" s="1">
+        <v>45001</v>
+      </c>
+      <c r="D390" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E390" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="391" spans="1:6">
+      <c r="A391" t="s">
+        <v>36</v>
+      </c>
+      <c r="B391" s="2">
+        <v>40</v>
+      </c>
+      <c r="C391" s="1">
+        <v>45003</v>
+      </c>
+      <c r="D391" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E391" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F391" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="392" spans="1:6">
+      <c r="A392" t="s">
+        <v>36</v>
+      </c>
+      <c r="B392" s="2">
+        <v>113</v>
+      </c>
+      <c r="C392" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D392" s="19" t="s">
+        <v>91</v>
+      </c>
+      <c r="E392" s="19" t="s">
+        <v>90</v>
+      </c>
+      <c r="F392" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="393" spans="1:6">
+      <c r="A393" t="s">
+        <v>43</v>
+      </c>
+      <c r="B393" s="2">
+        <v>17</v>
+      </c>
+      <c r="C393" s="1">
+        <v>44999</v>
+      </c>
+      <c r="D393" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E393" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="394" spans="1:6">
+      <c r="A394" t="s">
+        <v>48</v>
+      </c>
+      <c r="B394" s="2">
+        <v>72</v>
+      </c>
+      <c r="C394" s="1">
+        <v>44999</v>
+      </c>
+      <c r="D394" s="19" t="s">
+        <v>89</v>
+      </c>
+      <c r="E394" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="395" spans="1:6">
+      <c r="A395" t="s">
+        <v>49</v>
+      </c>
+      <c r="B395" s="2">
+        <v>212</v>
+      </c>
+      <c r="C395" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D395" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E395" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="396" spans="1:6">
+      <c r="A396" t="s">
+        <v>50</v>
+      </c>
+      <c r="B396" s="2">
+        <v>270</v>
+      </c>
+      <c r="C396" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D396" s="19" t="s">
+        <v>92</v>
+      </c>
+      <c r="E396" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="397" spans="1:6">
+      <c r="A397" t="s">
+        <v>55</v>
+      </c>
+      <c r="B397" s="2">
+        <v>72</v>
+      </c>
+      <c r="C397" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D397" s="19" t="s">
+        <v>93</v>
+      </c>
+      <c r="E397" s="19" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="398" spans="1:6">
+      <c r="A398" t="s">
+        <v>56</v>
+      </c>
+      <c r="B398" s="2">
+        <v>25</v>
+      </c>
+      <c r="C398" s="1">
+        <v>45001</v>
+      </c>
+      <c r="D398" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E398" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="399" spans="1:6">
+      <c r="A399" t="s">
+        <v>57</v>
+      </c>
+      <c r="B399" s="2">
+        <v>31</v>
+      </c>
+      <c r="C399" s="1">
+        <v>44998</v>
+      </c>
+      <c r="D399" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E399" s="19" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="400" spans="1:6">
+      <c r="A400" t="s">
+        <v>58</v>
+      </c>
+      <c r="B400" s="2">
+        <v>12</v>
+      </c>
+      <c r="C400" s="1">
+        <v>44998</v>
+      </c>
+      <c r="D400" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E400" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F400" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="401" spans="1:6">
+      <c r="A401" t="s">
+        <v>58</v>
+      </c>
+      <c r="B401" s="2">
+        <v>22</v>
+      </c>
+      <c r="C401" s="1">
+        <v>44999</v>
+      </c>
+      <c r="D401" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E401" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F401" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="402" spans="1:6">
+      <c r="A402" t="s">
+        <v>58</v>
+      </c>
+      <c r="B402" s="2">
+        <v>16</v>
+      </c>
+      <c r="C402" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D402" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E402" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F402" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="403" spans="1:6">
+      <c r="A403" t="s">
+        <v>58</v>
+      </c>
+      <c r="B403" s="2">
+        <v>18</v>
+      </c>
+      <c r="C403" s="1">
+        <v>45000</v>
+      </c>
+      <c r="D403" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E403" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F403" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="404" spans="1:6">
+      <c r="A404" t="s">
+        <v>65</v>
+      </c>
+      <c r="B404" s="2">
+        <v>48</v>
+      </c>
+      <c r="C404" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D404" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E404" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F404" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="405" spans="1:6">
+      <c r="A405" t="s">
+        <v>65</v>
+      </c>
+      <c r="B405" s="2">
+        <v>50</v>
+      </c>
+      <c r="C405" s="1">
+        <v>45004</v>
+      </c>
+      <c r="D405" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E405" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F405" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="406" spans="1:6">
+      <c r="A406" t="s">
+        <v>65</v>
+      </c>
+      <c r="B406" s="2">
+        <v>100</v>
+      </c>
+      <c r="C406" s="1">
+        <v>45004</v>
+      </c>
+      <c r="D406" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E406" s="19" t="s">
+        <v>95</v>
+      </c>
+      <c r="F406" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="407" spans="1:6">
+      <c r="A407" t="s">
+        <v>72</v>
+      </c>
+      <c r="B407" s="2">
+        <v>45</v>
+      </c>
+      <c r="C407" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D407" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E407" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F407" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="408" spans="1:6">
+      <c r="A408" t="s">
+        <v>72</v>
+      </c>
+      <c r="B408" s="2">
+        <v>80</v>
+      </c>
+      <c r="C408" s="1">
+        <v>45004</v>
+      </c>
+      <c r="D408" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E408" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F408" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="409" spans="1:6">
+      <c r="A409" t="s">
+        <v>75</v>
+      </c>
+      <c r="B409" s="2">
+        <v>73</v>
+      </c>
+      <c r="C409" s="1">
+        <v>44999</v>
+      </c>
+      <c r="D409" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E409" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F409" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="410" spans="1:6">
+      <c r="A410" t="s">
+        <v>86</v>
+      </c>
+      <c r="B410" s="2">
+        <v>70</v>
+      </c>
+      <c r="C410" s="1">
+        <v>44999</v>
+      </c>
+      <c r="D410" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E410" s="19" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="411" spans="1:6">
+      <c r="A411" t="s">
+        <v>72</v>
+      </c>
+      <c r="B411" s="2">
+        <v>45</v>
+      </c>
+      <c r="C411" s="1">
+        <v>44997</v>
+      </c>
+      <c r="D411" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E411" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F411" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="412" spans="1:6">
+      <c r="A412" t="s">
+        <v>72</v>
+      </c>
+      <c r="B412" s="2">
+        <v>80</v>
+      </c>
+      <c r="C412" s="1">
+        <v>45004</v>
+      </c>
+      <c r="D412" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E412" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F412" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="413" spans="1:6">
+      <c r="A413" t="s">
+        <v>75</v>
+      </c>
+      <c r="B413" s="2">
+        <v>39</v>
+      </c>
+      <c r="C413" s="1">
+        <v>44999</v>
+      </c>
+      <c r="D413" s="19" t="s">
+        <v>94</v>
+      </c>
+      <c r="E413" s="19" t="s">
+        <v>88</v>
+      </c>
+      <c r="F413" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="414" spans="1:6">
+      <c r="A414" t="s">
+        <v>86</v>
+      </c>
+      <c r="B414" s="2">
+        <v>70</v>
+      </c>
+      <c r="C414" s="1">
+        <v>44999</v>
+      </c>
+      <c r="D414" s="19" t="s">
+        <v>87</v>
+      </c>
+      <c r="E414" s="19" t="s">
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -8310,7 +9690,7 @@
       <formula1>INDIRECT("Account[Account ID]")</formula1>
     </dataValidation>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B80:B325" xr:uid="{2FCE6913-03B2-4C0A-9512-DCFBC3DEC502}"/>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C341" xr:uid="{4B6A96E9-38EC-4D02-B32F-61C839D05DF8}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="C2:C414" xr:uid="{4B6A96E9-38EC-4D02-B32F-61C839D05DF8}">
       <formula1>INDIRECT("DatePicker[Date]")</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="G2:G325" xr:uid="{B7A093F7-2596-4881-A148-9A69608BEE78}">
@@ -8329,7 +9709,7 @@
   <dimension ref="A1:J44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+      <selection activeCell="J21" sqref="J21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8360,25 +9740,25 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>87</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>88</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>89</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>90</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>92</v>
+        <v>105</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -8398,7 +9778,7 @@
         <v>Meals Out</v>
       </c>
       <c r="E2" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F2" s="2">
         <v>200</v>
@@ -8434,7 +9814,7 @@
         <v>Parties</v>
       </c>
       <c r="E3" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F3" s="2">
         <v>600</v>
@@ -8470,7 +9850,7 @@
         <v>Gym</v>
       </c>
       <c r="E4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F4" s="2">
         <v>80</v>
@@ -8506,7 +9886,7 @@
         <v>Health Insurance</v>
       </c>
       <c r="E5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F5" s="2">
         <v>600</v>
@@ -8542,7 +9922,7 @@
         <v>Vitamins</v>
       </c>
       <c r="E6" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F6" s="2">
         <v>20</v>
@@ -8574,10 +9954,10 @@
         <v>Home</v>
       </c>
       <c r="D7" t="s">
-        <v>96</v>
+        <v>109</v>
       </c>
       <c r="E7" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F7" s="2">
         <v>120</v>
@@ -8613,7 +9993,7 @@
         <v>Home Insurance</v>
       </c>
       <c r="E8" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F8" s="2">
         <v>165</v>
@@ -8645,10 +10025,10 @@
         <v>Home</v>
       </c>
       <c r="D9" t="s">
-        <v>97</v>
+        <v>110</v>
       </c>
       <c r="E9" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F9" s="2">
         <v>10000</v>
@@ -8684,7 +10064,7 @@
         <v>Mortgage</v>
       </c>
       <c r="E10" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F10" s="2">
         <v>1200</v>
@@ -8705,7 +10085,7 @@
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B11" t="str">
         <f>_xlfn.XLOOKUP(Budget[[#This Row],[Account ID]], Account[Account ID], Account[Account Owner])</f>
@@ -8720,7 +10100,7 @@
         <v>Pest Control</v>
       </c>
       <c r="E11" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="F11" s="2">
         <v>360</v>
@@ -8756,7 +10136,7 @@
         <v>Rates</v>
       </c>
       <c r="E12" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F12" s="2">
         <v>1170</v>
@@ -8792,7 +10172,7 @@
         <v>Cleaning Products</v>
       </c>
       <c r="E13" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F13" s="2">
         <v>60</v>
@@ -8828,7 +10208,7 @@
         <v>Gardening Supplies</v>
       </c>
       <c r="E14" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F14" s="2">
         <v>75</v>
@@ -8864,7 +10244,7 @@
         <v>Groceries</v>
       </c>
       <c r="E15" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F15" s="2">
         <v>120</v>
@@ -8900,7 +10280,7 @@
         <v>Prepared Meals</v>
       </c>
       <c r="E16" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F16" s="2">
         <v>80</v>
@@ -8936,7 +10316,7 @@
         <v>Dragon Disposal</v>
       </c>
       <c r="E17" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F17" s="3">
         <v>100</v>
@@ -8972,7 +10352,7 @@
         <v>Dragon Feed</v>
       </c>
       <c r="E18" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F18" s="2">
         <v>220</v>
@@ -9008,7 +10388,7 @@
         <v>Dragon Medicine</v>
       </c>
       <c r="E19" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F19" s="2">
         <v>340</v>
@@ -9044,7 +10424,7 @@
         <v>Dragon Pen Maintenance</v>
       </c>
       <c r="E20" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F20" s="3">
         <v>180</v>
@@ -9080,7 +10460,7 @@
         <v>Car Insurance</v>
       </c>
       <c r="E21" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F21" s="2">
         <v>160</v>
@@ -9116,7 +10496,7 @@
         <v>Car Maintenance</v>
       </c>
       <c r="E22" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F22" s="2">
         <v>300</v>
@@ -9152,7 +10532,7 @@
         <v>Petrol</v>
       </c>
       <c r="E23" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="F23" s="3">
         <v>60</v>
@@ -9188,7 +10568,7 @@
         <v>Electricity</v>
       </c>
       <c r="E24" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F24" s="3">
         <v>430</v>
@@ -9224,7 +10604,7 @@
         <v>Internet</v>
       </c>
       <c r="E25" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F25" s="2">
         <v>109</v>
@@ -9260,7 +10640,7 @@
         <v>Water</v>
       </c>
       <c r="E26" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F26" s="2">
         <v>190</v>
@@ -9296,7 +10676,7 @@
         <v>Armour Polish</v>
       </c>
       <c r="E27" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F27" s="2">
         <v>30</v>
@@ -9332,7 +10712,7 @@
         <v>Boots</v>
       </c>
       <c r="E28" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F28" s="2">
         <v>100</v>
@@ -9368,7 +10748,7 @@
         <v>Cigars</v>
       </c>
       <c r="E29" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F29" s="2">
         <v>60</v>
@@ -9404,7 +10784,7 @@
         <v>Meals Out</v>
       </c>
       <c r="E30" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F30" s="2">
         <v>80</v>
@@ -9440,7 +10820,7 @@
         <v>Mobile Phone</v>
       </c>
       <c r="E31" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F31" s="2">
         <v>60</v>
@@ -9461,7 +10841,7 @@
     </row>
     <row r="32" spans="1:10">
       <c r="A32" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B32" t="str">
         <f>_xlfn.XLOOKUP(Budget[[#This Row],[Account ID]], Account[Account ID], Account[Account Owner])</f>
@@ -9476,7 +10856,7 @@
         <v>Other Discretionary</v>
       </c>
       <c r="E32" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F32" s="2">
         <v>100</v>
@@ -9512,7 +10892,7 @@
         <v>Bandages</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F33" s="2">
         <v>45</v>
@@ -9533,7 +10913,7 @@
     </row>
     <row r="34" spans="1:10">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>115</v>
       </c>
       <c r="B34" t="str">
         <f>_xlfn.XLOOKUP(Budget[[#This Row],[Account ID]], Account[Account ID], Account[Account Owner])</f>
@@ -9548,7 +10928,7 @@
         <v>Dental</v>
       </c>
       <c r="E34" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F34" s="2">
         <v>120</v>
@@ -9584,7 +10964,7 @@
         <v>Salves and Ointments</v>
       </c>
       <c r="E35" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F35" s="2">
         <v>75</v>
@@ -9620,7 +11000,7 @@
         <v>Clothes</v>
       </c>
       <c r="E36" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="F36" s="2">
         <v>400</v>
@@ -9641,7 +11021,7 @@
     </row>
     <row r="37" spans="1:10">
       <c r="A37" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B37" t="str">
         <f>_xlfn.XLOOKUP(Budget[[#This Row],[Account ID]], Account[Account ID], Account[Account Owner])</f>
@@ -9656,7 +11036,7 @@
         <v>Meals Out</v>
       </c>
       <c r="E37" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F37" s="2">
         <v>60</v>
@@ -9692,7 +11072,7 @@
         <v>Mobile Phone</v>
       </c>
       <c r="E38" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F38" s="2">
         <v>75</v>
@@ -9713,7 +11093,7 @@
     </row>
     <row r="39" spans="1:10">
       <c r="A39" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B39" t="str">
         <f>_xlfn.XLOOKUP(Budget[[#This Row],[Account ID]], Account[Account ID], Account[Account Owner])</f>
@@ -9728,7 +11108,7 @@
         <v>Other Discretionary</v>
       </c>
       <c r="E39" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F39" s="2">
         <v>80</v>
@@ -9764,7 +11144,7 @@
         <v>Wigs</v>
       </c>
       <c r="E40" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F40" s="2">
         <v>300</v>
@@ -9800,7 +11180,7 @@
         <v>Netflix</v>
       </c>
       <c r="E41" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F41" s="2">
         <v>28</v>
@@ -9821,7 +11201,7 @@
     </row>
     <row r="42" spans="1:10">
       <c r="A42" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B42" t="str">
         <f>_xlfn.XLOOKUP(Budget[[#This Row],[Account ID]], Account[Account ID], Account[Account Owner])</f>
@@ -9836,7 +11216,7 @@
         <v>Opera</v>
       </c>
       <c r="E42" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="F42" s="2">
         <v>140</v>
@@ -9857,7 +11237,7 @@
     </row>
     <row r="43" spans="1:10">
       <c r="A43" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B43" t="str">
         <f>_xlfn.XLOOKUP(Budget[[#This Row],[Account ID]], Account[Account ID], Account[Account Owner])</f>
@@ -9872,7 +11252,7 @@
         <v>Burn Cream</v>
       </c>
       <c r="E43" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="F43" s="2">
         <v>70</v>
@@ -9908,7 +11288,7 @@
         <v>Dental</v>
       </c>
       <c r="E44" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="F44" s="2">
         <v>120</v>
@@ -9950,8 +11330,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D324BC89-9FCF-4784-A8AF-E8EA6D92BDDA}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9976,16 +11356,16 @@
         <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>86</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="F1" t="s">
-        <v>104</v>
+        <v>117</v>
       </c>
       <c r="G1" t="s">
-        <v>105</v>
+        <v>118</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -9994,13 +11374,13 @@
         <v>Com-Meals Out</v>
       </c>
       <c r="B2" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C2" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D2" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E2" t="b">
         <v>1</v>
@@ -10019,13 +11399,13 @@
         <v>Com-Parties</v>
       </c>
       <c r="B3" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C3" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="E3" t="b">
         <v>1</v>
@@ -10044,13 +11424,13 @@
         <v>Com-Gym</v>
       </c>
       <c r="B4" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C4" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D4" t="s">
-        <v>111</v>
+        <v>121</v>
       </c>
       <c r="E4" t="b">
         <v>0</v>
@@ -10069,13 +11449,13 @@
         <v>Com-Health Insurance</v>
       </c>
       <c r="B5" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C5" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D5" t="s">
-        <v>112</v>
+        <v>122</v>
       </c>
       <c r="E5" t="b">
         <v>0</v>
@@ -10094,13 +11474,13 @@
         <v>Com-Vitamins</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C6" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D6" t="s">
-        <v>113</v>
+        <v>123</v>
       </c>
       <c r="E6" t="b">
         <v>1</v>
@@ -10119,13 +11499,13 @@
         <v>Com-Gardening</v>
       </c>
       <c r="B7" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C7" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>125</v>
       </c>
       <c r="E7" t="b">
         <v>0</v>
@@ -10144,13 +11524,13 @@
         <v>Com-Home Insurance</v>
       </c>
       <c r="B8" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C8" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D8" t="s">
-        <v>116</v>
+        <v>126</v>
       </c>
       <c r="E8" t="b">
         <v>0</v>
@@ -10169,13 +11549,13 @@
         <v>Com-Home Maintenance</v>
       </c>
       <c r="B9" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C9" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D9" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="E9" t="b">
         <v>0</v>
@@ -10194,13 +11574,13 @@
         <v>Com-Mortgage</v>
       </c>
       <c r="B10" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C10" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D10" t="s">
-        <v>118</v>
+        <v>128</v>
       </c>
       <c r="E10" t="b">
         <v>0</v>
@@ -10219,13 +11599,13 @@
         <v>Com-Pest Control</v>
       </c>
       <c r="B11" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C11" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D11" t="s">
-        <v>119</v>
+        <v>129</v>
       </c>
       <c r="E11" t="b">
         <v>0</v>
@@ -10244,13 +11624,13 @@
         <v>Com-Rates</v>
       </c>
       <c r="B12" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C12" t="s">
-        <v>114</v>
+        <v>124</v>
       </c>
       <c r="D12" t="s">
-        <v>120</v>
+        <v>130</v>
       </c>
       <c r="E12" t="b">
         <v>0</v>
@@ -10269,13 +11649,13 @@
         <v>Com-Cleaning Products</v>
       </c>
       <c r="B13" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C13" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D13" t="s">
-        <v>122</v>
+        <v>131</v>
       </c>
       <c r="E13" t="b">
         <v>1</v>
@@ -10294,13 +11674,13 @@
         <v>Com-Gardening Supplies</v>
       </c>
       <c r="B14" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C14" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D14" t="s">
-        <v>123</v>
+        <v>132</v>
       </c>
       <c r="E14" t="b">
         <v>1</v>
@@ -10319,13 +11699,13 @@
         <v>Com-Groceries</v>
       </c>
       <c r="B15" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C15" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D15" t="s">
-        <v>124</v>
+        <v>133</v>
       </c>
       <c r="E15" t="b">
         <v>1</v>
@@ -10344,13 +11724,13 @@
         <v>Com-Prepared Meals</v>
       </c>
       <c r="B16" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C16" t="s">
-        <v>121</v>
+        <v>89</v>
       </c>
       <c r="D16" t="s">
-        <v>125</v>
+        <v>134</v>
       </c>
       <c r="E16" t="b">
         <v>1</v>
@@ -10369,13 +11749,13 @@
         <v>Com-Dragon Disposal</v>
       </c>
       <c r="B17" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C17" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D17" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E17" t="b">
         <v>0</v>
@@ -10394,13 +11774,13 @@
         <v>Com-Dragon Feed</v>
       </c>
       <c r="B18" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C18" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D18" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="E18" t="b">
         <v>0</v>
@@ -10419,13 +11799,13 @@
         <v>Com-Dragon Medicine</v>
       </c>
       <c r="B19" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C19" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D19" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="E19" t="b">
         <v>0</v>
@@ -10444,13 +11824,13 @@
         <v>Com-Dragon Pen Maintenance</v>
       </c>
       <c r="B20" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C20" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
       <c r="D20" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="E20" t="b">
         <v>0</v>
@@ -10469,13 +11849,13 @@
         <v>Com-Car Maintenance</v>
       </c>
       <c r="B21" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C21" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D21" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="E21" t="b">
         <v>0</v>
@@ -10494,13 +11874,13 @@
         <v>Com-Car Insurance</v>
       </c>
       <c r="B22" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C22" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D22" t="s">
-        <v>133</v>
+        <v>140</v>
       </c>
       <c r="E22" t="b">
         <v>0</v>
@@ -10519,13 +11899,13 @@
         <v>Com-Petrol</v>
       </c>
       <c r="B23" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C23" t="s">
-        <v>131</v>
+        <v>93</v>
       </c>
       <c r="D23" t="s">
-        <v>134</v>
+        <v>141</v>
       </c>
       <c r="E23" t="b">
         <v>1</v>
@@ -10544,13 +11924,13 @@
         <v>Com-Electricity</v>
       </c>
       <c r="B24" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C24" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D24" t="s">
-        <v>136</v>
+        <v>143</v>
       </c>
       <c r="E24" t="b">
         <v>0</v>
@@ -10569,13 +11949,13 @@
         <v>Com-Internet</v>
       </c>
       <c r="B25" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C25" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D25" t="s">
-        <v>137</v>
+        <v>144</v>
       </c>
       <c r="E25" t="b">
         <v>0</v>
@@ -10594,13 +11974,13 @@
         <v>Com-Water</v>
       </c>
       <c r="B26" t="s">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="C26" t="s">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D26" t="s">
-        <v>138</v>
+        <v>145</v>
       </c>
       <c r="E26" t="b">
         <v>0</v>
@@ -10619,13 +11999,13 @@
         <v>Sam-Armour Polish</v>
       </c>
       <c r="B27" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C27" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D27" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="E27" t="b">
         <v>0</v>
@@ -10644,13 +12024,13 @@
         <v>Sam-Boots</v>
       </c>
       <c r="B28" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C28" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D28" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="E28" t="b">
         <v>0</v>
@@ -10669,13 +12049,13 @@
         <v>Sam-Cigars</v>
       </c>
       <c r="B29" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C29" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D29" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="E29" t="b">
         <v>1</v>
@@ -10694,13 +12074,13 @@
         <v>Sam-Meals Out</v>
       </c>
       <c r="B30" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C30" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D30" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E30" t="b">
         <v>1</v>
@@ -10719,13 +12099,13 @@
         <v>Sam-Mobile Phone</v>
       </c>
       <c r="B31" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C31" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D31" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
       <c r="E31" t="b">
         <v>0</v>
@@ -10744,13 +12124,13 @@
         <v>Sam-Other Discretionary</v>
       </c>
       <c r="B32" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C32" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D32" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E32" t="b">
         <v>1</v>
@@ -10769,13 +12149,13 @@
         <v>Sam-Bandages</v>
       </c>
       <c r="B33" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C33" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D33" t="s">
-        <v>146</v>
+        <v>151</v>
       </c>
       <c r="E33" t="b">
         <v>1</v>
@@ -10794,13 +12174,13 @@
         <v>Sam-Dental</v>
       </c>
       <c r="B34" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C34" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D34" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E34" t="b">
         <v>0</v>
@@ -10819,13 +12199,13 @@
         <v>Sam-Salves and Ointments</v>
       </c>
       <c r="B35" t="s">
-        <v>139</v>
+        <v>95</v>
       </c>
       <c r="C35" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D35" t="s">
-        <v>148</v>
+        <v>153</v>
       </c>
       <c r="E35" t="b">
         <v>1</v>
@@ -10844,13 +12224,13 @@
         <v>Syb-Clothes</v>
       </c>
       <c r="B36" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C36" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D36" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="E36" t="b">
         <v>0</v>
@@ -10869,13 +12249,13 @@
         <v>Syb-Meals Out</v>
       </c>
       <c r="B37" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C37" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D37" t="s">
-        <v>108</v>
+        <v>119</v>
       </c>
       <c r="E37" t="b">
         <v>1</v>
@@ -10894,13 +12274,13 @@
         <v>Syb-Mobile Phone</v>
       </c>
       <c r="B38" t="s">
+        <v>88</v>
+      </c>
+      <c r="C38" t="s">
+        <v>94</v>
+      </c>
+      <c r="D38" t="s">
         <v>149</v>
-      </c>
-      <c r="C38" t="s">
-        <v>140</v>
-      </c>
-      <c r="D38" t="s">
-        <v>144</v>
       </c>
       <c r="E38" t="b">
         <v>0</v>
@@ -10919,13 +12299,13 @@
         <v>Syb-Other Discretionary</v>
       </c>
       <c r="B39" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C39" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D39" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="E39" t="b">
         <v>1</v>
@@ -10944,13 +12324,13 @@
         <v>Syb-Wigs</v>
       </c>
       <c r="B40" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C40" t="s">
-        <v>140</v>
+        <v>94</v>
       </c>
       <c r="D40" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="E40" t="b">
         <v>0</v>
@@ -10969,13 +12349,13 @@
         <v>Syb-Netflix</v>
       </c>
       <c r="B41" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C41" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D41" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="E41" t="b">
         <v>1</v>
@@ -10994,13 +12374,13 @@
         <v>Syb-Opera</v>
       </c>
       <c r="B42" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C42" t="s">
-        <v>107</v>
+        <v>91</v>
       </c>
       <c r="D42" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="E42" t="b">
         <v>0</v>
@@ -11019,13 +12399,13 @@
         <v>Syb-Burn Cream</v>
       </c>
       <c r="B43" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C43" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D43" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="E43" t="b">
         <v>1</v>
@@ -11044,13 +12424,13 @@
         <v>Syb-Dental</v>
       </c>
       <c r="B44" t="s">
-        <v>149</v>
+        <v>88</v>
       </c>
       <c r="C44" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
       <c r="D44" t="s">
-        <v>147</v>
+        <v>152</v>
       </c>
       <c r="E44" t="b">
         <v>0</v>
@@ -11099,59 +12479,59 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="D1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="G1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="I1" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="L1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="N1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="A2" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B2" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="D2" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="E2" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="G2" t="s">
         <v>2</v>
       </c>
       <c r="I2" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="J2" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="L2" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="N2" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3" spans="1:14">
       <c r="A3" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="B3" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D3" s="1">
         <f>MIN(Budget[Effective From])</f>
@@ -11165,13 +12545,13 @@
         <v>44927</v>
       </c>
       <c r="I3" t="s">
-        <v>93</v>
+        <v>106</v>
       </c>
       <c r="J3">
         <v>1</v>
       </c>
       <c r="L3" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="N3" t="b">
         <v>1</v>
@@ -11179,23 +12559,23 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="B4" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="G4" s="1">
         <f>1+G3</f>
         <v>44928</v>
       </c>
       <c r="I4" t="s">
-        <v>95</v>
+        <v>108</v>
       </c>
       <c r="J4">
         <v>2</v>
       </c>
       <c r="L4" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="N4" t="b">
         <v>0</v>
@@ -11203,86 +12583,86 @@
     </row>
     <row r="5" spans="1:14">
       <c r="A5" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="G5" s="1">
         <f t="shared" ref="G5:G68" si="0">1+G4</f>
         <v>44929</v>
       </c>
       <c r="I5" t="s">
-        <v>94</v>
+        <v>107</v>
       </c>
       <c r="J5">
         <v>4.33</v>
       </c>
       <c r="L5" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="A6" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="G6" s="1">
         <f t="shared" si="0"/>
         <v>44930</v>
       </c>
       <c r="I6" t="s">
-        <v>100</v>
+        <v>113</v>
       </c>
       <c r="J6">
         <v>13</v>
       </c>
       <c r="L6" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="A7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="B7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G7" s="1">
         <f t="shared" si="0"/>
         <v>44931</v>
       </c>
       <c r="I7" t="s">
-        <v>101</v>
+        <v>114</v>
       </c>
       <c r="J7">
         <v>26</v>
       </c>
       <c r="L7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="A8" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="B8" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G8" s="1">
         <f t="shared" si="0"/>
         <v>44932</v>
       </c>
       <c r="I8" t="s">
-        <v>98</v>
+        <v>111</v>
       </c>
       <c r="J8">
         <v>52</v>
       </c>
       <c r="L8" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -11291,7 +12671,7 @@
         <v>44933</v>
       </c>
       <c r="L9" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -13455,7 +14835,7 @@
   <dimension ref="B2:M397"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="N18" sqref="N18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13475,13 +14855,13 @@
   <sheetData>
     <row r="2" spans="2:13">
       <c r="B2" s="14" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="C2" s="12">
         <v>2023</v>
       </c>
       <c r="E2" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="K2" t="s">
         <v>0</v>
@@ -13495,7 +14875,7 @@
     </row>
     <row r="3" spans="2:13">
       <c r="B3" s="14" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C3" s="13">
         <f>DATEVALUE("01/01/" &amp; C2)</f>
@@ -13503,16 +14883,16 @@
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="4" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="L3" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="M3" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="2:13">
@@ -13531,14 +14911,14 @@
     </row>
     <row r="5" spans="2:13">
       <c r="B5" s="8" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="C5" s="7" t="s">
         <v>16</v>
       </c>
       <c r="D5" s="1"/>
       <c r="E5" s="15" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="K5" t="s">
         <v>16</v>
@@ -13552,7 +14932,7 @@
     </row>
     <row r="6" spans="2:13">
       <c r="B6" s="8" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="C6" s="6">
         <f>_xlfn.XLOOKUP($C$5, Budget[Account ID], Budget[Budgeted Amount at Frequency])</f>
@@ -13560,7 +14940,7 @@
       </c>
       <c r="D6" s="1"/>
       <c r="E6" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="K6" t="s">
         <v>16</v>
@@ -13574,7 +14954,7 @@
     </row>
     <row r="7" spans="2:13">
       <c r="B7" s="8" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="C7" s="6" t="str">
         <f>_xlfn.XLOOKUP($C$5, Budget[Account ID], Budget[Frequency])</f>
@@ -13582,7 +14962,7 @@
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="18" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="K7" t="s">
         <v>16</v>
@@ -13597,7 +14977,7 @@
     <row r="8" spans="2:13">
       <c r="D8" s="1"/>
       <c r="E8" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="J8" s="4"/>
       <c r="K8" t="s">
@@ -13612,13 +14992,13 @@
     </row>
     <row r="9" spans="2:13">
       <c r="B9" s="11" t="s">
-        <v>193</v>
+        <v>197</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E9" s="17" t="s">
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="K9" t="s">
         <v>16</v>
@@ -13632,7 +15012,7 @@
     </row>
     <row r="10" spans="2:13">
       <c r="B10" s="11" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="C10" s="9">
         <v>18</v>
@@ -13649,7 +15029,7 @@
     </row>
     <row r="11" spans="2:13">
       <c r="E11" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="K11" t="s">
         <v>16</v>
@@ -13663,7 +15043,7 @@
     </row>
     <row r="12" spans="2:13">
       <c r="E12" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="K12" t="s">
         <v>16</v>
@@ -13720,16 +15100,16 @@
     </row>
     <row r="16" spans="2:13">
       <c r="B16" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="C16" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="D16" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="E16" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="F16" t="s">
         <v>0</v>
